--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614283.9781129544</v>
+        <v>638885.4388978148</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,58 +674,58 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.3034809802377</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,16 +1023,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>170.8588840239977</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
+        <v>13.74034240511227</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>186.8078260851154</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,31 +1367,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.211010870930398</v>
-      </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,25 +1412,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>14.48693373137006</v>
+        <v>19.84004947482875</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T14" t="n">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>51.90280359853562</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>107.2644082870342</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>84.19667283955526</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10.22883273666413</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>164.2908645372123</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2278,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>79.41714906066386</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>116.7833678227963</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>113.1682173871407</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,70 +2710,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>35.40726547353844</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3.839869650691833</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3108,16 +3108,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>130.7465013044437</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>36.43923176655766</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>127.9331172856529</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,19 +3545,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>119.3888130423743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.2257756954703</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3712,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="E41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>82.66126100643983</v>
       </c>
       <c r="F42" t="n">
-        <v>62.35969771424954</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.8574159413388</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>146.7597106867436</v>
       </c>
     </row>
     <row r="46">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4331,13 +4331,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4361,7 +4361,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
         <v>614.4775954922324</v>
@@ -4370,10 +4370,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>122.874819529786</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4416,13 +4416,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="X3" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y3" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="4">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4574,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>380.1017799485678</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>380.1017799485678</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>380.1017799485678</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4653,16 +4653,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4671,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>137.7041268545529</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>137.7041268545529</v>
+        <v>548.3171169686359</v>
       </c>
       <c r="W6" t="n">
-        <v>137.7041268545529</v>
+        <v>548.3171169686359</v>
       </c>
       <c r="X6" t="n">
-        <v>137.7041268545529</v>
+        <v>548.3171169686359</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.7041268545529</v>
+        <v>548.3171169686359</v>
       </c>
     </row>
     <row r="7">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="C8" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="D8" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="E8" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
         <v>16.44142755506243</v>
@@ -4805,16 +4805,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4826,28 +4826,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.6132922217692</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>324.6132922217692</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>600.5984617496947</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="Y9" t="n">
-        <v>324.6132922217692</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G11" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H11" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,10 +5148,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>807.4381113577983</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="V12" t="n">
         <v>599.8443290969091</v>
@@ -5160,7 +5160,7 @@
         <v>392.2505468360198</v>
       </c>
       <c r="X12" t="n">
-        <v>184.6567645751305</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y12" t="n">
         <v>184.6567645751305</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5282,10 +5282,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5303,25 +5303,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>506.1297083336119</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5364,10 +5364,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5382,25 +5382,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>769.6443034111664</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="U15" t="n">
-        <v>614.4775954922324</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="V15" t="n">
-        <v>506.1297083336119</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="W15" t="n">
-        <v>506.1297083336119</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="X15" t="n">
-        <v>506.1297083336119</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y15" t="n">
-        <v>506.1297083336119</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.6974229850125</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C18" t="n">
-        <v>217.6974229850125</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D18" t="n">
-        <v>217.6974229850125</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E18" t="n">
-        <v>217.6974229850125</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F18" t="n">
-        <v>132.6502787026334</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>425.5489231905453</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>217.6974229850125</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>217.6974229850125</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="19">
@@ -5698,13 +5698,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.48569440222</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0326651210929</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="D21" t="n">
-        <v>169.0982554598417</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="E21" t="n">
-        <v>169.0982554598417</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F21" t="n">
-        <v>169.0982554598417</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G21" t="n">
-        <v>30.36743004245716</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>696.9372578441155</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.701031422288</v>
+        <v>696.9372578441155</v>
       </c>
     </row>
     <row r="22">
@@ -5926,16 +5926,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C23" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C23" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.492073253973</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>345.004439675971</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6163,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C26" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>292.8299288097498</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>133.5924738042943</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,7 +6309,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
         <v>486.8488635328713</v>
@@ -6342,13 +6342,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>960.1784992978162</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>960.1784992978162</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>960.1784992978162</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>960.1784992978162</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>960.1784992978162</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6646,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.4227147053767</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>310.5857711504598</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>151.3483161450043</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>927.2498506959315</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>927.2498506959315</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X33" t="n">
-        <v>719.3983504903987</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y33" t="n">
-        <v>511.6380517254448</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F35" t="n">
         <v>506.1786963984129</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="G36" t="n">
         <v>223.7040404982626</v>
@@ -7017,16 +7017,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7050,16 +7050,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>139.8759037590757</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C39" t="n">
-        <v>139.8759037590757</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D39" t="n">
-        <v>139.8759037590757</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="E39" t="n">
-        <v>139.8759037590757</v>
+        <v>295.0807182769926</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>148.5461603038775</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>555.4877027295624</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>555.4877027295624</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>347.6362025240296</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.8759037590757</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="40">
@@ -7360,13 +7360,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7454,7 +7454,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7473,10 @@
         <v>238.668476211275</v>
       </c>
       <c r="E42" t="n">
-        <v>79.43102120581955</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7494,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="I44" t="n">
         <v>28.51141680214578</v>
@@ -7649,16 +7649,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H45" t="n">
         <v>17.19556020784815</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>506.3738150812261</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>506.3738150812261</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>506.3738150812261</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>506.3738150812261</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>506.3738150812261</v>
       </c>
       <c r="Y45" t="n">
-        <v>191.6485894889752</v>
+        <v>298.7800328203368</v>
       </c>
     </row>
     <row r="46">
@@ -7837,13 +7837,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
         <v>16.44142755506243</v>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8064,16 +8064,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8222,10 +8222,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,7 +8301,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8310,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,7 +8465,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8541,13 +8541,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,19 +8775,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,13 +8930,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9012,13 +9012,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,13 +9246,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133072</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22562,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22623,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.1962373724677</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>52.27602240042461</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.22970266962962</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,7 +22869,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,10 +22878,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,16 +22911,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>61.94170312542758</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351.5828422233929</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,10 +23027,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23066,7 +23066,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23078,16 +23078,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>237.9546407558073</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.87486969218901</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>201.2648786994755</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23388,22 +23388,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>211.4544483496048</v>
+        <v>206.1013326061461</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>158.4546847345297</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23543,16 +23543,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,16 +23622,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>119.7803675053022</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>125.536178862391</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>60.87253955382862</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,13 +23859,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23874,7 +23874,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,22 +23972,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,7 +24014,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24048,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>102.0066114998323</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>41.48212066626513</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24166,19 +24166,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C23" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24300,13 +24300,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>32.8182951758326</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,10 +24345,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>88.98961738068115</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>312.84732328326</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,13 +24525,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>118.392647926014</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>31.90099500624314</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,7 +24582,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24768,19 +24768,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9362516896722</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>96.31796450195129</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24886,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24996,16 +24996,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>14.3227110889402</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>63.71860238608547</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>186.6629199992865</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,10 +25205,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>9.410399877557694</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25290,7 +25290,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,7 +25397,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,19 +25433,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25476,13 +25476,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>25.68039935100954</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>10.11774146774034</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,10 +25631,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>185.6122135940581</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9102526910244</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25713,13 +25713,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>74.98381944896111</v>
       </c>
       <c r="F42" t="n">
-        <v>82.70951467913434</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>195.6029128086028</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,10 +25880,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>191.2741794849307</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>59.30731275348285</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>58.92298509056073</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441874.4396389474</v>
+        <v>441874.4396389473</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441874.4396389474</v>
+        <v>441874.4396389473</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229466</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465428.5179229463</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465428.5179229463</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441874.4396389474</v>
+        <v>441874.4396389473</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441874.4396389474</v>
+        <v>441874.4396389473</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26323,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596919</v>
+        <v>134093.9955596918</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26347,7 +26347,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="N2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="O2" t="n">
         <v>134093.9955596919</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524591</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524591</v>
+        <v>23970.50033531153</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7746.192279091316</v>
+        <v>-4873.346299156954</v>
       </c>
       <c r="C6" t="n">
-        <v>61127.56430259853</v>
+        <v>64000.41028253289</v>
       </c>
       <c r="D6" t="n">
-        <v>61127.56430259853</v>
+        <v>64000.41028253295</v>
       </c>
       <c r="E6" t="n">
-        <v>94755.1643025985</v>
+        <v>97628.01028253288</v>
       </c>
       <c r="F6" t="n">
-        <v>94755.1643025985</v>
+        <v>97628.01028253286</v>
       </c>
       <c r="G6" t="n">
-        <v>88543.6185826938</v>
+        <v>91571.59170108449</v>
       </c>
       <c r="H6" t="n">
-        <v>98272.6615568609</v>
+        <v>101300.6346752516</v>
       </c>
       <c r="I6" t="n">
-        <v>98272.66155686093</v>
+        <v>101300.6346752516</v>
       </c>
       <c r="J6" t="n">
-        <v>44500.15066665149</v>
+        <v>47528.12378504217</v>
       </c>
       <c r="K6" t="n">
-        <v>98272.66155686096</v>
+        <v>101300.6346752516</v>
       </c>
       <c r="L6" t="n">
-        <v>98272.66155686096</v>
+        <v>101300.6346752516</v>
       </c>
       <c r="M6" t="n">
-        <v>98272.66155686093</v>
+        <v>101300.6346752516</v>
       </c>
       <c r="N6" t="n">
-        <v>98272.66155686099</v>
+        <v>101300.6346752516</v>
       </c>
       <c r="O6" t="n">
-        <v>94755.16430259852</v>
+        <v>97628.01028253289</v>
       </c>
       <c r="P6" t="n">
-        <v>94755.1643025985</v>
+        <v>97628.01028253288</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34784,16 +34784,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,7 +35021,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35185,7 +35185,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35261,13 +35261,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35495,19 +35495,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35732,13 +35732,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638885.4388978148</v>
+        <v>639669.5848358435</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -656,20 +658,20 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>205.5178444382804</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>66.38439726656337</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1023,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>111.4111571566564</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>170.8588840239977</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,64 +1141,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1212,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>152.6562894669719</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>13.74034240511227</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="H11" t="n">
         <v>205.5178444382804</v>
@@ -1391,7 +1393,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>19.84004947482875</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>46.54968785507681</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,61 +1621,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>51.90280359853562</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>141.0990816214768</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1980,7 +1982,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>135.1603019826155</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2162,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>3.249728832748761</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>164.2908645372123</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2397,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>79.41714906066386</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>145.8943652679175</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2515,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,64 +2557,64 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>21.85442600983729</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>173.8719901972344</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,67 +2794,67 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.839869650691833</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3108,16 +3110,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="F33" t="n">
-        <v>130.7465013044437</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>130.3832897527008</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>127.9331172856529</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3588,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>127.2257756954703</v>
+        <v>83.23877906295974</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>82.66126100643983</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>1.714921000282511</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>13.66473413638044</v>
       </c>
       <c r="T45" t="n">
-        <v>140.8574159413388</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4331,13 +4333,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4361,7 +4363,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
         <v>614.4775954922324</v>
@@ -4370,10 +4372,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="Y2" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4416,13 +4418,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>233.4664686820119</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>25.87268642112264</v>
+        <v>755.0164310192192</v>
       </c>
       <c r="X3" t="n">
-        <v>25.87268642112264</v>
+        <v>547.42264875833</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.87268642112264</v>
+        <v>339.8288664974407</v>
       </c>
     </row>
     <row r="4">
@@ -4504,10 +4506,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
         <v>16.44142755506243</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4607,10 +4609,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380.1017799485678</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="C6" t="n">
-        <v>380.1017799485678</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="D6" t="n">
-        <v>380.1017799485678</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="E6" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
         <v>107.4951893506917</v>
@@ -4650,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>434.9479813762152</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>434.9479813762152</v>
       </c>
       <c r="V6" t="n">
-        <v>548.3171169686359</v>
+        <v>434.9479813762152</v>
       </c>
       <c r="W6" t="n">
-        <v>548.3171169686359</v>
+        <v>434.9479813762152</v>
       </c>
       <c r="X6" t="n">
-        <v>548.3171169686359</v>
+        <v>434.9479813762152</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.3171169686359</v>
+        <v>434.9479813762152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4805,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>170.639699743923</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W9" t="n">
-        <v>600.5984617496947</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X9" t="n">
-        <v>393.0046794888054</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.4108972279162</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4984,28 +4986,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5066,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>599.8443290969091</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="W12" t="n">
-        <v>392.2505468360198</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360198</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5269,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5282,10 +5284,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5300,25 +5302,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
         <v>224.0352098159517</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>191.6485894889752</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>769.6443034111664</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>567.4577087699325</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>567.4577087699325</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="V15" t="n">
-        <v>567.4577087699325</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="W15" t="n">
-        <v>567.4577087699325</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="X15" t="n">
-        <v>567.4577087699325</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="Y15" t="n">
-        <v>359.8639265090432</v>
+        <v>506.1297083336119</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5479,7 +5481,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,13 +5597,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>528.7219208240474</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C21" t="n">
-        <v>528.7219208240474</v>
+        <v>318.0326651210929</v>
       </c>
       <c r="D21" t="n">
-        <v>528.7219208240474</v>
+        <v>169.0982554598417</v>
       </c>
       <c r="E21" t="n">
-        <v>369.484465818592</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X21" t="n">
-        <v>696.9372578441155</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y21" t="n">
-        <v>696.9372578441155</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5935,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>582.8795121963512</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C24" t="n">
-        <v>408.4264829152243</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>259.492073253973</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>816.6891097854671</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>614.502515144233</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>802.5825927271064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y26" t="n">
-        <v>802.5825927271064</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6344,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C30" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D30" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>960.1784992978162</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>960.1784992978162</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>960.1784992978162</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>960.1784992978162</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V30" t="n">
-        <v>960.1784992978162</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W30" t="n">
-        <v>716.7297226537162</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X30" t="n">
-        <v>716.7297226537162</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y30" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6648,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="C32" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="D32" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="E32" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F32" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="G32" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="H32" t="n">
         <v>223.6192102101089</v>
-      </c>
-      <c r="C32" t="n">
-        <v>223.6192102101089</v>
-      </c>
-      <c r="D32" t="n">
-        <v>223.6192102101089</v>
-      </c>
-      <c r="E32" t="n">
-        <v>223.6192102101089</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>459.5201808117111</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C33" t="n">
-        <v>459.5201808117111</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D33" t="n">
-        <v>310.5857711504598</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E33" t="n">
-        <v>151.3483161450043</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>627.7355178317791</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y33" t="n">
-        <v>627.7355178317791</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F35" t="n">
         <v>506.1786963984129</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D36" t="n">
-        <v>352.9294114938717</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E36" t="n">
-        <v>352.9294114938717</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>352.9294114938717</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
         <v>223.7040404982626</v>
@@ -7020,10 +7022,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7050,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.6530896684844</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="39">
@@ -7236,16 +7238,16 @@
         <v>454.3181732824481</v>
       </c>
       <c r="E39" t="n">
-        <v>295.0807182769926</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="F39" t="n">
-        <v>148.5461603038775</v>
+        <v>307.7836153093331</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7360,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7391,22 +7393,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,7 +7420,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E42" t="n">
-        <v>155.1722529724469</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7497,10 +7499,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7602,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>463.0946480769296</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C44" t="n">
-        <v>463.0946480769296</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D44" t="n">
-        <v>255.5008658160403</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E44" t="n">
-        <v>255.5008658160403</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
-        <v>255.5008658160403</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>255.5008658160403</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>47.90708355515102</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
         <v>28.51141680214578</v>
@@ -7649,13 +7651,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>670.6884303378189</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>463.0946480769296</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.5646958002688</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7734,13 +7736,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>808.268615999202</v>
       </c>
       <c r="T45" t="n">
-        <v>506.3738150812261</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="U45" t="n">
-        <v>506.3738150812261</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="V45" t="n">
-        <v>506.3738150812261</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="W45" t="n">
-        <v>506.3738150812261</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="X45" t="n">
-        <v>506.3738150812261</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y45" t="n">
-        <v>298.7800328203368</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,7 +7990,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8064,16 +8066,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,7 +8467,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,13 +11147,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,16 +11384,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22601,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>180.7200942177732</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.1962373724677</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>185.3105858943562</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,7 +22789,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="6">
@@ -22878,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22911,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>88.75357153816522</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>61.94170312542758</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23078,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23100,13 +23102,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>4.988790988429002</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23160,13 +23162,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>237.9546407558073</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23203,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>246.2319094885102</v>
       </c>
       <c r="H11" t="n">
         <v>133.9569576774867</v>
@@ -23279,7 +23281,7 @@
         <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,19 +23390,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>206.1013326061461</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>186.2508992943485</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23507,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23540,28 +23542,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>119.7803675053022</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>84.84230045949803</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="17">
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,10 +23828,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>97.64028516680975</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,7 +24016,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>154.3953516226522</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24063,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>41.48212066626513</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24145,13 +24147,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24285,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>32.8182951758326</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>25.78880583592036</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24403,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>312.84732328326</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,13 +24527,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>118.392647926014</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>31.90099500624308</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>125.4575720412377</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>81.18038932886157</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>96.31796450195129</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24888,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24996,16 +24998,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="F33" t="n">
-        <v>14.3227110889402</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>27.26179070270015</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>9.410399877557694</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>397.1388095696924</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25476,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>10.11774146774034</v>
+        <v>54.1047381002509</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>185.6122135940581</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>200.9102526910244</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>74.98381944896111</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.6285961629281</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,10 +25882,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>191.2741794849307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>227.1578098439735</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="T45" t="n">
-        <v>59.30731275348285</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441874.4396389473</v>
+        <v>441874.4396389474</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441874.4396389473</v>
+        <v>441874.4396389474</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465428.5179229466</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441874.4396389473</v>
+        <v>441874.4396389474</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441874.4396389473</v>
+        <v>441874.4396389475</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="C2" t="n">
-        <v>134093.9955596919</v>
+        <v>134093.9955596918</v>
       </c>
       <c r="D2" t="n">
         <v>134093.9955596919</v>
@@ -26323,7 +26325,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26418,10 +26420,10 @@
         <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
+        <v>23970.50033531152</v>
+      </c>
+      <c r="D4" t="n">
         <v>23970.50033531153</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
         <v>23970.50033531153</v>
@@ -26457,7 +26459,7 @@
         <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4873.346299156954</v>
+        <v>-4873.346299156925</v>
       </c>
       <c r="C6" t="n">
-        <v>64000.41028253289</v>
+        <v>64000.41028253287</v>
       </c>
       <c r="D6" t="n">
-        <v>64000.41028253295</v>
+        <v>64000.41028253291</v>
       </c>
       <c r="E6" t="n">
         <v>97628.01028253288</v>
       </c>
       <c r="F6" t="n">
-        <v>97628.01028253286</v>
+        <v>97628.01028253289</v>
       </c>
       <c r="G6" t="n">
-        <v>91571.59170108449</v>
+        <v>91571.59170108452</v>
       </c>
       <c r="H6" t="n">
         <v>101300.6346752516</v>
@@ -26543,7 +26545,7 @@
         <v>101300.6346752516</v>
       </c>
       <c r="J6" t="n">
-        <v>47528.12378504217</v>
+        <v>47528.12378504215</v>
       </c>
       <c r="K6" t="n">
         <v>101300.6346752516</v>
@@ -26555,13 +26557,13 @@
         <v>101300.6346752516</v>
       </c>
       <c r="N6" t="n">
-        <v>101300.6346752516</v>
+        <v>101300.6346752515</v>
       </c>
       <c r="O6" t="n">
+        <v>97628.01028253292</v>
+      </c>
+      <c r="P6" t="n">
         <v>97628.01028253289</v>
-      </c>
-      <c r="P6" t="n">
-        <v>97628.01028253288</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34708,7 +34710,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34784,16 +34786,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35185,7 +35187,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N41" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,13 +37867,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,16 +38104,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639669.5848358435</v>
+        <v>535437.0865724004</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443471</v>
       </c>
     </row>
     <row r="9">
@@ -670,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="W2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="X2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>66.38439726656337</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>205.5178444382804</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,62 +898,62 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>111.4111571566564</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>152.6562894669719</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>46.54968785507681</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>68.78467314474098</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>141.0990816214768</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>135.1603019826155</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>189.0590886838989</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>106.8205760858955</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2168,13 +2168,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>3.249728832748761</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S24" t="n">
-        <v>145.8943652679175</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T26" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>173.8719901972344</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,70 +2712,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,61 +3040,61 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>36.43923176655773</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>99.13012673870382</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,25 +3350,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>130.3832897527008</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>9.737236172019017</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>83.23877906295974</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
     </row>
     <row r="40">
@@ -3745,55 +3745,55 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.714921000282511</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,64 +3976,64 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>205.5178444382804</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>8.438698031532754</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.66473413638044</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4333,13 +4333,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4363,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4448,13 +4448,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>755.0164310192192</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>547.42264875833</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.8288664974407</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="4">
@@ -4512,13 +4512,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
         <v>16.44142755506243</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4570,10 +4570,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266.7326443561471</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C6" t="n">
-        <v>266.7326443561471</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D6" t="n">
-        <v>266.7326443561471</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,46 +4652,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>142.2888212580996</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>345.7514872519972</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>434.9479813762152</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>434.9479813762152</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>434.9479813762152</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>434.9479813762152</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X6" t="n">
-        <v>434.9479813762152</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y6" t="n">
-        <v>434.9479813762152</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4783,19 +4783,19 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4807,43 +4807,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
         <v>639.2227743377304</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>345.09272902505</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V9" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.6485894889752</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5156,16 +5156,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>775.0514910308218</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>775.0514910308218</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>567.4577087699325</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.8639265090432</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5284,46 +5284,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="U14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y14" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U14" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="V14" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="W14" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X14" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>506.1297083336119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C15" t="n">
-        <v>506.1297083336119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D15" t="n">
-        <v>506.1297083336119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>506.1297083336119</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>506.1297083336119</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>506.1297083336119</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>506.1297083336119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>506.1297083336119</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5460,25 +5460,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
         <v>16.44142755506243</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>327.4530077769195</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.48569440222</v>
+        <v>627.9339654430905</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0326651210929</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D21" t="n">
-        <v>169.0982554598417</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5837,10 +5837,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
         <v>725.4530095217538</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,10 +6071,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
         <v>486.8488635328713</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S24" t="n">
-        <v>816.6891097854671</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T24" t="n">
-        <v>614.502515144233</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>386.2788968806221</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>386.2788968806221</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>386.2788968806221</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>386.2788968806221</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6165,16 +6165,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E26" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.0531560887832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>325.0531560887832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6344,13 +6344,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>325.0531560887832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.0531560887832</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6548,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>83.81530782185143</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>83.81530782185143</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>485.167420504237</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C38" t="n">
-        <v>485.167420504237</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D38" t="n">
-        <v>485.167420504237</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E38" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V38" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W38" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X38" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y38" t="n">
-        <v>485.167420504237</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>307.7836153093331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
-        <v>454.3181732824481</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.2969392348976</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="C42" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V42" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W42" t="n">
-        <v>339.8907214957869</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X42" t="n">
-        <v>339.8907214957869</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y42" t="n">
-        <v>132.2969392348976</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="43">
@@ -7605,13 +7605,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
         <v>16.44142755506243</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>813.547440347533</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>813.547440347533</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>808.268615999202</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>606.0820213579681</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>398.4882390970787</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>398.4882390970787</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>398.4882390970787</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>398.4882390970787</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>139.0491612396719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>336.8595565216137</v>
@@ -8312,10 +8312,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8549,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10670,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>132.9581318332687</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22688,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>185.3105858943562</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>0.2551407651970692</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,10 +22786,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>88.75357153816522</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23080,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>4.988790988429002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>246.2319094885102</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>186.2508992943485</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T14" t="n">
-        <v>191.9448501240437</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23585,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>68.55884401846966</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>84.84230045949803</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23816,10 +23816,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>97.64028516680975</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>16.71389651957861</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>59.71260756397189</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,13 +24056,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>154.3953516226522</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24147,13 +24147,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24253,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S24" t="n">
-        <v>25.78880583592036</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24414,10 +24414,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24445,28 +24445,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T26" t="n">
-        <v>201.2414235542941</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>31.90099500624308</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>81.18038932886157</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>160.7877277095291</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>121.2058486888432</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,16 +25046,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>336.5320379404362</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25207,10 +25207,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25238,25 +25238,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>27.26179070270015</v>
+        <v>53.93202509251918</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F38" t="n">
-        <v>397.1388095696924</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>54.1047381002509</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>141.793872712782</v>
       </c>
     </row>
     <row r="40">
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25678,10 +25678,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>119.0337761790443</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.6285961629281</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25845,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>122.2344140318545</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.1578098439735</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>158.0944856183346</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25994,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>158.0184369674574</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441874.4396389473</v>
+        <v>441874.4396389474</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465428.5179229463</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441874.4396389475</v>
+        <v>441874.4396389474</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="C2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="D2" t="n">
         <v>134093.9955596919</v>
@@ -26331,7 +26331,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="H2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="I2" t="n">
         <v>141236.5716516325</v>
@@ -26423,10 +26423,10 @@
         <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
         <v>23970.50033531152</v>
@@ -26456,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4873.346299156925</v>
+        <v>-17511.50845401746</v>
       </c>
       <c r="C6" t="n">
-        <v>64000.41028253287</v>
+        <v>51362.24812767239</v>
       </c>
       <c r="D6" t="n">
-        <v>64000.41028253291</v>
+        <v>51362.24812767242</v>
       </c>
       <c r="E6" t="n">
-        <v>97628.01028253288</v>
+        <v>84989.84812767239</v>
       </c>
       <c r="F6" t="n">
-        <v>97628.01028253289</v>
+        <v>84989.84812767242</v>
       </c>
       <c r="G6" t="n">
-        <v>91571.59170108452</v>
+        <v>79353.58108104402</v>
       </c>
       <c r="H6" t="n">
-        <v>101300.6346752516</v>
+        <v>89082.62405521117</v>
       </c>
       <c r="I6" t="n">
-        <v>101300.6346752516</v>
+        <v>89082.62405521114</v>
       </c>
       <c r="J6" t="n">
-        <v>47528.12378504215</v>
+        <v>35310.11316500168</v>
       </c>
       <c r="K6" t="n">
-        <v>101300.6346752516</v>
+        <v>89082.62405521114</v>
       </c>
       <c r="L6" t="n">
-        <v>101300.6346752516</v>
+        <v>89082.62405521111</v>
       </c>
       <c r="M6" t="n">
-        <v>101300.6346752516</v>
+        <v>89082.62405521114</v>
       </c>
       <c r="N6" t="n">
-        <v>101300.6346752515</v>
+        <v>89082.62405521111</v>
       </c>
       <c r="O6" t="n">
-        <v>97628.01028253292</v>
+        <v>84989.84812767243</v>
       </c>
       <c r="P6" t="n">
-        <v>97628.01028253289</v>
+        <v>84989.84812767241</v>
       </c>
     </row>
   </sheetData>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35020,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
         <v>205.5178444382804</v>
@@ -35032,10 +35032,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35664,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37156,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38028,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
